--- a/Team-Data/2012-13/4-5-2012-13.xlsx
+++ b/Team-Data/2012-13/4-5-2012-13.xlsx
@@ -50,7 +50,6 @@
       <right style="thin"/>
       <top style="thin"/>
       <bottom style="thin"/>
-      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
@@ -66,6 +65,74 @@
     <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -666,16 +733,16 @@
         </is>
       </c>
       <c r="D2" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E2" t="n">
         <v>42</v>
       </c>
       <c r="F2" t="n">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="G2" t="n">
-        <v>0.545</v>
+        <v>0.553</v>
       </c>
       <c r="H2" t="n">
         <v>48.5</v>
@@ -684,7 +751,7 @@
         <v>37.5</v>
       </c>
       <c r="J2" t="n">
-        <v>80.59999999999999</v>
+        <v>80.7</v>
       </c>
       <c r="K2" t="n">
         <v>0.465</v>
@@ -696,22 +763,22 @@
         <v>23.4</v>
       </c>
       <c r="N2" t="n">
-        <v>0.376</v>
+        <v>0.377</v>
       </c>
       <c r="O2" t="n">
-        <v>13.9</v>
+        <v>13.8</v>
       </c>
       <c r="P2" t="n">
-        <v>19.6</v>
+        <v>19.5</v>
       </c>
       <c r="Q2" t="n">
-        <v>0.707</v>
+        <v>0.709</v>
       </c>
       <c r="R2" t="n">
-        <v>9.1</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="S2" t="n">
-        <v>31.5</v>
+        <v>31.4</v>
       </c>
       <c r="T2" t="n">
         <v>40.6</v>
@@ -723,7 +790,7 @@
         <v>15</v>
       </c>
       <c r="W2" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X2" t="n">
         <v>4.6</v>
@@ -738,16 +805,16 @@
         <v>18.8</v>
       </c>
       <c r="AB2" t="n">
-        <v>97.59999999999999</v>
+        <v>97.7</v>
       </c>
       <c r="AC2" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AD2" t="n">
         <v>1</v>
       </c>
       <c r="AE2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AF2" t="n">
         <v>13</v>
@@ -792,22 +859,22 @@
         <v>10</v>
       </c>
       <c r="AT2" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AU2" t="n">
         <v>2</v>
       </c>
       <c r="AV2" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AW2" t="n">
         <v>15</v>
       </c>
       <c r="AX2" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AY2" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ2" t="n">
         <v>2</v>
@@ -819,7 +886,7 @@
         <v>15</v>
       </c>
       <c r="BC2" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="BD2" t="n">
         <v>10</v>
@@ -831,7 +898,7 @@
       </c>
       <c r="BF2" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -848,16 +915,16 @@
         </is>
       </c>
       <c r="D3" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E3" t="n">
         <v>39</v>
       </c>
       <c r="F3" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="G3" t="n">
-        <v>0.513</v>
+        <v>0.52</v>
       </c>
       <c r="H3" t="n">
         <v>49.1</v>
@@ -866,31 +933,31 @@
         <v>36.8</v>
       </c>
       <c r="J3" t="n">
-        <v>79.59999999999999</v>
+        <v>79.5</v>
       </c>
       <c r="K3" t="n">
-        <v>0.462</v>
+        <v>0.463</v>
       </c>
       <c r="L3" t="n">
         <v>6.1</v>
       </c>
       <c r="M3" t="n">
-        <v>17.2</v>
+        <v>17.1</v>
       </c>
       <c r="N3" t="n">
-        <v>0.356</v>
+        <v>0.357</v>
       </c>
       <c r="O3" t="n">
         <v>16.5</v>
       </c>
       <c r="P3" t="n">
-        <v>21.3</v>
+        <v>21.2</v>
       </c>
       <c r="Q3" t="n">
-        <v>0.775</v>
+        <v>0.778</v>
       </c>
       <c r="R3" t="n">
-        <v>8.1</v>
+        <v>8</v>
       </c>
       <c r="S3" t="n">
         <v>31.4</v>
@@ -902,16 +969,16 @@
         <v>22.8</v>
       </c>
       <c r="V3" t="n">
-        <v>14.6</v>
+        <v>14.7</v>
       </c>
       <c r="W3" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Y3" t="n">
-        <v>4.7</v>
+        <v>4.6</v>
       </c>
       <c r="Z3" t="n">
         <v>21.3</v>
@@ -920,22 +987,22 @@
         <v>19.6</v>
       </c>
       <c r="AB3" t="n">
-        <v>96.09999999999999</v>
+        <v>96.2</v>
       </c>
       <c r="AC3" t="n">
-        <v>-0.3</v>
+        <v>-0.2</v>
       </c>
       <c r="AD3" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AF3" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AG3" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AH3" t="n">
         <v>1</v>
@@ -947,46 +1014,46 @@
         <v>27</v>
       </c>
       <c r="AK3" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AL3" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AM3" t="n">
         <v>26</v>
       </c>
       <c r="AN3" t="n">
+        <v>17</v>
+      </c>
+      <c r="AO3" t="n">
         <v>18</v>
       </c>
-      <c r="AO3" t="n">
-        <v>17</v>
-      </c>
       <c r="AP3" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AQ3" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="AR3" t="n">
         <v>30</v>
       </c>
       <c r="AS3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AT3" t="n">
         <v>29</v>
       </c>
       <c r="AU3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AV3" t="n">
         <v>13</v>
       </c>
       <c r="AW3" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AX3" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AY3" t="n">
         <v>10</v>
@@ -1001,7 +1068,7 @@
         <v>19</v>
       </c>
       <c r="BC3" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="BD3" t="n">
         <v>10</v>
@@ -1013,7 +1080,7 @@
       </c>
       <c r="BF3" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -1108,16 +1175,16 @@
         <v>1.3</v>
       </c>
       <c r="AD4" t="n">
-        <v>22</v>
+        <v>8</v>
       </c>
       <c r="AE4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AF4" t="n">
         <v>9</v>
       </c>
       <c r="AG4" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AH4" t="n">
         <v>8</v>
@@ -1135,7 +1202,7 @@
         <v>9</v>
       </c>
       <c r="AM4" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AN4" t="n">
         <v>15</v>
@@ -1165,13 +1232,13 @@
         <v>19</v>
       </c>
       <c r="AW4" t="n">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="AX4" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AY4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="AZ4" t="n">
         <v>4</v>
@@ -1195,7 +1262,7 @@
       </c>
       <c r="BF4" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -1212,28 +1279,28 @@
         </is>
       </c>
       <c r="D5" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E5" t="n">
         <v>18</v>
       </c>
       <c r="F5" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G5" t="n">
-        <v>0.237</v>
+        <v>0.24</v>
       </c>
       <c r="H5" t="n">
         <v>48.3</v>
       </c>
       <c r="I5" t="n">
-        <v>34.3</v>
+        <v>34.4</v>
       </c>
       <c r="J5" t="n">
-        <v>81.40000000000001</v>
+        <v>81.3</v>
       </c>
       <c r="K5" t="n">
-        <v>0.421</v>
+        <v>0.423</v>
       </c>
       <c r="L5" t="n">
         <v>5.7</v>
@@ -1242,28 +1309,28 @@
         <v>17</v>
       </c>
       <c r="N5" t="n">
-        <v>0.334</v>
+        <v>0.336</v>
       </c>
       <c r="O5" t="n">
         <v>19.1</v>
       </c>
       <c r="P5" t="n">
-        <v>25.4</v>
+        <v>25.5</v>
       </c>
       <c r="Q5" t="n">
-        <v>0.749</v>
+        <v>0.747</v>
       </c>
       <c r="R5" t="n">
-        <v>11.3</v>
+        <v>11.2</v>
       </c>
       <c r="S5" t="n">
-        <v>28.9</v>
+        <v>29</v>
       </c>
       <c r="T5" t="n">
-        <v>40.2</v>
+        <v>40.1</v>
       </c>
       <c r="U5" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="V5" t="n">
         <v>13.9</v>
@@ -1278,19 +1345,19 @@
         <v>7.1</v>
       </c>
       <c r="Z5" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="AA5" t="n">
-        <v>21.5</v>
+        <v>21.6</v>
       </c>
       <c r="AB5" t="n">
-        <v>93.3</v>
+        <v>93.5</v>
       </c>
       <c r="AC5" t="n">
         <v>-9.699999999999999</v>
       </c>
       <c r="AD5" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE5" t="n">
         <v>30</v>
@@ -1308,7 +1375,7 @@
         <v>30</v>
       </c>
       <c r="AJ5" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AK5" t="n">
         <v>30</v>
@@ -1323,7 +1390,7 @@
         <v>27</v>
       </c>
       <c r="AO5" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AP5" t="n">
         <v>4</v>
@@ -1341,13 +1408,13 @@
         <v>27</v>
       </c>
       <c r="AU5" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="AV5" t="n">
         <v>5</v>
       </c>
       <c r="AW5" t="n">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="AX5" t="n">
         <v>6</v>
@@ -1377,7 +1444,7 @@
       </c>
       <c r="BF5" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -1394,16 +1461,16 @@
         </is>
       </c>
       <c r="D6" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E6" t="n">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="F6" t="n">
         <v>33</v>
       </c>
       <c r="G6" t="n">
-        <v>0.5600000000000001</v>
+        <v>0.554</v>
       </c>
       <c r="H6" t="n">
         <v>48.3</v>
@@ -1418,31 +1485,31 @@
         <v>0.436</v>
       </c>
       <c r="L6" t="n">
-        <v>5.2</v>
+        <v>5.1</v>
       </c>
       <c r="M6" t="n">
         <v>15</v>
       </c>
       <c r="N6" t="n">
-        <v>0.343</v>
+        <v>0.342</v>
       </c>
       <c r="O6" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P6" t="n">
         <v>21.1</v>
       </c>
       <c r="Q6" t="n">
-        <v>0.776</v>
+        <v>0.774</v>
       </c>
       <c r="R6" t="n">
-        <v>12.7</v>
+        <v>12.8</v>
       </c>
       <c r="S6" t="n">
         <v>30.6</v>
       </c>
       <c r="T6" t="n">
-        <v>43.3</v>
+        <v>43.4</v>
       </c>
       <c r="U6" t="n">
         <v>23</v>
@@ -1460,22 +1527,22 @@
         <v>5.9</v>
       </c>
       <c r="Z6" t="n">
-        <v>19.4</v>
+        <v>19.5</v>
       </c>
       <c r="AA6" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AB6" t="n">
-        <v>92.8</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC6" t="n">
         <v>0.5</v>
       </c>
       <c r="AD6" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE6" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AF6" t="n">
         <v>11</v>
@@ -1490,7 +1557,7 @@
         <v>26</v>
       </c>
       <c r="AJ6" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AK6" t="n">
         <v>27</v>
@@ -1505,13 +1572,13 @@
         <v>24</v>
       </c>
       <c r="AO6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AP6" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AQ6" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AR6" t="n">
         <v>5</v>
@@ -1526,10 +1593,10 @@
         <v>7</v>
       </c>
       <c r="AV6" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AW6" t="n">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="AX6" t="n">
         <v>12</v>
@@ -1544,10 +1611,10 @@
         <v>18</v>
       </c>
       <c r="BB6" t="n">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="BC6" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="BD6" t="n">
         <v>10</v>
@@ -1559,7 +1626,7 @@
       </c>
       <c r="BF6" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -1576,16 +1643,16 @@
         </is>
       </c>
       <c r="D7" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E7" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="F7" t="n">
         <v>52</v>
       </c>
       <c r="G7" t="n">
-        <v>0.307</v>
+        <v>0.297</v>
       </c>
       <c r="H7" t="n">
         <v>48.1</v>
@@ -1594,46 +1661,46 @@
         <v>36.5</v>
       </c>
       <c r="J7" t="n">
-        <v>84.2</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K7" t="n">
         <v>0.434</v>
       </c>
       <c r="L7" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="M7" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="N7" t="n">
-        <v>0.348</v>
+        <v>0.349</v>
       </c>
       <c r="O7" t="n">
-        <v>17</v>
+        <v>16.9</v>
       </c>
       <c r="P7" t="n">
-        <v>22.5</v>
+        <v>22.4</v>
       </c>
       <c r="Q7" t="n">
-        <v>0.757</v>
+        <v>0.755</v>
       </c>
       <c r="R7" t="n">
-        <v>12.2</v>
+        <v>12.1</v>
       </c>
       <c r="S7" t="n">
-        <v>28.5</v>
+        <v>28.4</v>
       </c>
       <c r="T7" t="n">
-        <v>40.7</v>
+        <v>40.5</v>
       </c>
       <c r="U7" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="V7" t="n">
-        <v>14.1</v>
+        <v>14</v>
       </c>
       <c r="W7" t="n">
-        <v>8</v>
+        <v>8.1</v>
       </c>
       <c r="X7" t="n">
         <v>3.9</v>
@@ -1645,25 +1712,25 @@
         <v>21.2</v>
       </c>
       <c r="AA7" t="n">
-        <v>20</v>
+        <v>19.9</v>
       </c>
       <c r="AB7" t="n">
         <v>96.8</v>
       </c>
       <c r="AC7" t="n">
-        <v>-4.6</v>
+        <v>-4.8</v>
       </c>
       <c r="AD7" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AF7" t="n">
         <v>27</v>
       </c>
       <c r="AG7" t="n">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="AH7" t="n">
         <v>26</v>
@@ -1672,7 +1739,7 @@
         <v>19</v>
       </c>
       <c r="AJ7" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AK7" t="n">
         <v>28</v>
@@ -1681,7 +1748,7 @@
         <v>17</v>
       </c>
       <c r="AM7" t="n">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="AN7" t="n">
         <v>22</v>
@@ -1693,22 +1760,22 @@
         <v>14</v>
       </c>
       <c r="AQ7" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AR7" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AS7" t="n">
         <v>30</v>
       </c>
       <c r="AT7" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AU7" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AV7" t="n">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="AW7" t="n">
         <v>14</v>
@@ -1723,7 +1790,7 @@
         <v>26</v>
       </c>
       <c r="BA7" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="BB7" t="n">
         <v>17</v>
@@ -1741,7 +1808,7 @@
       </c>
       <c r="BF7" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -1758,25 +1825,25 @@
         </is>
       </c>
       <c r="D8" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E8" t="n">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="F8" t="n">
         <v>39</v>
       </c>
       <c r="G8" t="n">
-        <v>0.487</v>
+        <v>0.48</v>
       </c>
       <c r="H8" t="n">
         <v>48.7</v>
       </c>
       <c r="I8" t="n">
-        <v>38.7</v>
+        <v>38.6</v>
       </c>
       <c r="J8" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K8" t="n">
         <v>0.461</v>
@@ -1788,7 +1855,7 @@
         <v>20</v>
       </c>
       <c r="N8" t="n">
-        <v>0.37</v>
+        <v>0.371</v>
       </c>
       <c r="O8" t="n">
         <v>16.4</v>
@@ -1797,7 +1864,7 @@
         <v>20.7</v>
       </c>
       <c r="Q8" t="n">
-        <v>0.794</v>
+        <v>0.792</v>
       </c>
       <c r="R8" t="n">
         <v>9.199999999999999</v>
@@ -1806,13 +1873,13 @@
         <v>32.5</v>
       </c>
       <c r="T8" t="n">
-        <v>41.8</v>
+        <v>41.7</v>
       </c>
       <c r="U8" t="n">
         <v>23.1</v>
       </c>
       <c r="V8" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W8" t="n">
         <v>7.9</v>
@@ -1821,31 +1888,31 @@
         <v>5.5</v>
       </c>
       <c r="Y8" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Z8" t="n">
         <v>21</v>
       </c>
       <c r="AA8" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AB8" t="n">
-        <v>101.3</v>
+        <v>101</v>
       </c>
       <c r="AC8" t="n">
-        <v>-0.9</v>
+        <v>-1.1</v>
       </c>
       <c r="AD8" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE8" t="n">
         <v>17</v>
       </c>
       <c r="AF8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AG8" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AH8" t="n">
         <v>3</v>
@@ -1854,7 +1921,7 @@
         <v>3</v>
       </c>
       <c r="AJ8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AK8" t="n">
         <v>9</v>
@@ -1869,13 +1936,13 @@
         <v>7</v>
       </c>
       <c r="AO8" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AP8" t="n">
         <v>24</v>
       </c>
       <c r="AQ8" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AR8" t="n">
         <v>26</v>
@@ -1890,7 +1957,7 @@
         <v>6</v>
       </c>
       <c r="AV8" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AW8" t="n">
         <v>17</v>
@@ -1899,7 +1966,7 @@
         <v>9</v>
       </c>
       <c r="AY8" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AZ8" t="n">
         <v>23</v>
@@ -1923,7 +1990,7 @@
       </c>
       <c r="BF8" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -2018,7 +2085,7 @@
         <v>4.8</v>
       </c>
       <c r="AD9" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE9" t="n">
         <v>4</v>
@@ -2066,13 +2133,13 @@
         <v>11</v>
       </c>
       <c r="AT9" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AU9" t="n">
         <v>3</v>
       </c>
       <c r="AV9" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AW9" t="n">
         <v>2</v>
@@ -2105,7 +2172,7 @@
       </c>
       <c r="BF9" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -2200,7 +2267,7 @@
         <v>-4.8</v>
       </c>
       <c r="AD10" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE10" t="n">
         <v>26</v>
@@ -2212,7 +2279,7 @@
         <v>26</v>
       </c>
       <c r="AH10" t="n">
-        <v>17</v>
+        <v>21</v>
       </c>
       <c r="AI10" t="n">
         <v>24</v>
@@ -2230,7 +2297,7 @@
         <v>23</v>
       </c>
       <c r="AN10" t="n">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="AO10" t="n">
         <v>23</v>
@@ -2257,7 +2324,7 @@
         <v>20</v>
       </c>
       <c r="AW10" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="AX10" t="n">
         <v>16</v>
@@ -2272,10 +2339,10 @@
         <v>16</v>
       </c>
       <c r="BB10" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="BC10" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="BD10" t="n">
         <v>10</v>
@@ -2287,7 +2354,7 @@
       </c>
       <c r="BF10" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -2304,40 +2371,40 @@
         </is>
       </c>
       <c r="D11" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E11" t="n">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="F11" t="n">
         <v>32</v>
       </c>
       <c r="G11" t="n">
-        <v>0.579</v>
+        <v>0.573</v>
       </c>
       <c r="H11" t="n">
         <v>48.3</v>
       </c>
       <c r="I11" t="n">
-        <v>38</v>
+        <v>37.9</v>
       </c>
       <c r="J11" t="n">
         <v>83.09999999999999</v>
       </c>
       <c r="K11" t="n">
-        <v>0.457</v>
+        <v>0.456</v>
       </c>
       <c r="L11" t="n">
-        <v>8</v>
+        <v>7.9</v>
       </c>
       <c r="M11" t="n">
-        <v>19.8</v>
+        <v>19.9</v>
       </c>
       <c r="N11" t="n">
-        <v>0.401</v>
+        <v>0.399</v>
       </c>
       <c r="O11" t="n">
-        <v>17</v>
+        <v>17.1</v>
       </c>
       <c r="P11" t="n">
         <v>21.5</v>
@@ -2349,10 +2416,10 @@
         <v>10.8</v>
       </c>
       <c r="S11" t="n">
-        <v>33.9</v>
+        <v>34.1</v>
       </c>
       <c r="T11" t="n">
-        <v>44.7</v>
+        <v>44.9</v>
       </c>
       <c r="U11" t="n">
         <v>22.5</v>
@@ -2361,10 +2428,10 @@
         <v>15.1</v>
       </c>
       <c r="W11" t="n">
-        <v>6.9</v>
+        <v>6.8</v>
       </c>
       <c r="X11" t="n">
-        <v>4.2</v>
+        <v>4.3</v>
       </c>
       <c r="Y11" t="n">
         <v>4.9</v>
@@ -2373,16 +2440,16 @@
         <v>21.5</v>
       </c>
       <c r="AA11" t="n">
-        <v>19.3</v>
+        <v>19.4</v>
       </c>
       <c r="AB11" t="n">
-        <v>101</v>
+        <v>100.8</v>
       </c>
       <c r="AC11" t="n">
         <v>0.8</v>
       </c>
       <c r="AD11" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE11" t="n">
         <v>9</v>
@@ -2421,31 +2488,31 @@
         <v>17</v>
       </c>
       <c r="AQ11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AR11" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AS11" t="n">
         <v>1</v>
       </c>
       <c r="AT11" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU11" t="n">
         <v>14</v>
       </c>
       <c r="AV11" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AW11" t="n">
-        <v>26</v>
+        <v>27</v>
       </c>
       <c r="AX11" t="n">
         <v>26</v>
       </c>
       <c r="AY11" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AZ11" t="n">
         <v>28</v>
@@ -2469,7 +2536,7 @@
       </c>
       <c r="BF11" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -2486,16 +2553,16 @@
         </is>
       </c>
       <c r="D12" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E12" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="F12" t="n">
         <v>33</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5659999999999999</v>
+        <v>0.5600000000000001</v>
       </c>
       <c r="H12" t="n">
         <v>48.2</v>
@@ -2504,10 +2571,10 @@
         <v>38.2</v>
       </c>
       <c r="J12" t="n">
-        <v>82.59999999999999</v>
+        <v>82.7</v>
       </c>
       <c r="K12" t="n">
-        <v>0.462</v>
+        <v>0.461</v>
       </c>
       <c r="L12" t="n">
         <v>10.6</v>
@@ -2516,13 +2583,13 @@
         <v>28.7</v>
       </c>
       <c r="N12" t="n">
-        <v>0.368</v>
+        <v>0.367</v>
       </c>
       <c r="O12" t="n">
-        <v>19.2</v>
+        <v>19.1</v>
       </c>
       <c r="P12" t="n">
-        <v>25.4</v>
+        <v>25.3</v>
       </c>
       <c r="Q12" t="n">
         <v>0.755</v>
@@ -2531,7 +2598,7 @@
         <v>11.1</v>
       </c>
       <c r="S12" t="n">
-        <v>32.2</v>
+        <v>32.1</v>
       </c>
       <c r="T12" t="n">
         <v>43.3</v>
@@ -2549,7 +2616,7 @@
         <v>4.1</v>
       </c>
       <c r="Y12" t="n">
-        <v>6</v>
+        <v>6.1</v>
       </c>
       <c r="Z12" t="n">
         <v>20.2</v>
@@ -2558,16 +2625,16 @@
         <v>20.4</v>
       </c>
       <c r="AB12" t="n">
-        <v>106.1</v>
+        <v>106</v>
       </c>
       <c r="AC12" t="n">
-        <v>3.9</v>
+        <v>3.7</v>
       </c>
       <c r="AD12" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE12" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AF12" t="n">
         <v>11</v>
@@ -2585,7 +2652,7 @@
         <v>10</v>
       </c>
       <c r="AK12" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AL12" t="n">
         <v>2</v>
@@ -2594,7 +2661,7 @@
         <v>1</v>
       </c>
       <c r="AN12" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AO12" t="n">
         <v>2</v>
@@ -2603,7 +2670,7 @@
         <v>5</v>
       </c>
       <c r="AQ12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="AR12" t="n">
         <v>17</v>
@@ -2627,10 +2694,10 @@
         <v>28</v>
       </c>
       <c r="AY12" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AZ12" t="n">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="BA12" t="n">
         <v>11</v>
@@ -2651,7 +2718,7 @@
       </c>
       <c r="BF12" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -2668,43 +2735,43 @@
         </is>
       </c>
       <c r="D13" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E13" t="n">
         <v>48</v>
       </c>
       <c r="F13" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="G13" t="n">
-        <v>0.632</v>
+        <v>0.64</v>
       </c>
       <c r="H13" t="n">
         <v>48.4</v>
       </c>
       <c r="I13" t="n">
-        <v>35.2</v>
+        <v>35.3</v>
       </c>
       <c r="J13" t="n">
-        <v>80.7</v>
+        <v>80.8</v>
       </c>
       <c r="K13" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L13" t="n">
-        <v>6.9</v>
+        <v>7</v>
       </c>
       <c r="M13" t="n">
         <v>19.6</v>
       </c>
       <c r="N13" t="n">
-        <v>0.353</v>
+        <v>0.357</v>
       </c>
       <c r="O13" t="n">
         <v>17.5</v>
       </c>
       <c r="P13" t="n">
-        <v>23.4</v>
+        <v>23.3</v>
       </c>
       <c r="Q13" t="n">
         <v>0.75</v>
@@ -2713,16 +2780,16 @@
         <v>12.9</v>
       </c>
       <c r="S13" t="n">
-        <v>33.2</v>
+        <v>33.3</v>
       </c>
       <c r="T13" t="n">
-        <v>46.1</v>
+        <v>46.3</v>
       </c>
       <c r="U13" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="V13" t="n">
-        <v>15</v>
+        <v>15.1</v>
       </c>
       <c r="W13" t="n">
         <v>7.1</v>
@@ -2734,22 +2801,22 @@
         <v>5.7</v>
       </c>
       <c r="Z13" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA13" t="n">
         <v>21.8</v>
       </c>
       <c r="AB13" t="n">
-        <v>94.8</v>
+        <v>95.09999999999999</v>
       </c>
       <c r="AC13" t="n">
-        <v>4.8</v>
+        <v>5.2</v>
       </c>
       <c r="AD13" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE13" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AF13" t="n">
         <v>8</v>
@@ -2776,13 +2843,13 @@
         <v>15</v>
       </c>
       <c r="AN13" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="AO13" t="n">
         <v>9</v>
       </c>
       <c r="AP13" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AQ13" t="n">
         <v>18</v>
@@ -2791,7 +2858,7 @@
         <v>4</v>
       </c>
       <c r="AS13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AT13" t="n">
         <v>1</v>
@@ -2800,10 +2867,10 @@
         <v>27</v>
       </c>
       <c r="AV13" t="n">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="AW13" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AX13" t="n">
         <v>4</v>
@@ -2833,7 +2900,7 @@
       </c>
       <c r="BF13" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -2928,7 +2995,7 @@
         <v>6.2</v>
       </c>
       <c r="AD14" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE14" t="n">
         <v>6</v>
@@ -2940,7 +3007,7 @@
         <v>6</v>
       </c>
       <c r="AH14" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AI14" t="n">
         <v>5</v>
@@ -2958,10 +3025,10 @@
         <v>9</v>
       </c>
       <c r="AN14" t="n">
+        <v>20</v>
+      </c>
+      <c r="AO14" t="n">
         <v>17</v>
-      </c>
-      <c r="AO14" t="n">
-        <v>16</v>
       </c>
       <c r="AP14" t="n">
         <v>10</v>
@@ -2982,7 +3049,7 @@
         <v>4</v>
       </c>
       <c r="AV14" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AW14" t="n">
         <v>1</v>
@@ -2991,7 +3058,7 @@
         <v>7</v>
       </c>
       <c r="AY14" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AZ14" t="n">
         <v>25</v>
@@ -3015,7 +3082,7 @@
       </c>
       <c r="BF14" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -3032,16 +3099,16 @@
         </is>
       </c>
       <c r="D15" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E15" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F15" t="n">
         <v>36</v>
       </c>
       <c r="G15" t="n">
-        <v>0.526</v>
+        <v>0.52</v>
       </c>
       <c r="H15" t="n">
         <v>48.1</v>
@@ -3050,25 +3117,25 @@
         <v>37.2</v>
       </c>
       <c r="J15" t="n">
-        <v>81.2</v>
+        <v>81.3</v>
       </c>
       <c r="K15" t="n">
         <v>0.458</v>
       </c>
       <c r="L15" t="n">
-        <v>8.699999999999999</v>
+        <v>8.800000000000001</v>
       </c>
       <c r="M15" t="n">
-        <v>24.5</v>
+        <v>24.6</v>
       </c>
       <c r="N15" t="n">
-        <v>0.356</v>
+        <v>0.358</v>
       </c>
       <c r="O15" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="P15" t="n">
-        <v>27.6</v>
+        <v>27.7</v>
       </c>
       <c r="Q15" t="n">
         <v>0.6879999999999999</v>
@@ -3104,13 +3171,13 @@
         <v>22.9</v>
       </c>
       <c r="AB15" t="n">
-        <v>102.1</v>
+        <v>102.3</v>
       </c>
       <c r="AC15" t="n">
         <v>1.1</v>
       </c>
       <c r="AD15" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE15" t="n">
         <v>14</v>
@@ -3125,10 +3192,10 @@
         <v>28</v>
       </c>
       <c r="AI15" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AJ15" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AK15" t="n">
         <v>10</v>
@@ -3143,7 +3210,7 @@
         <v>16</v>
       </c>
       <c r="AO15" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AP15" t="n">
         <v>1</v>
@@ -3155,25 +3222,25 @@
         <v>13</v>
       </c>
       <c r="AS15" t="n">
+        <v>4</v>
+      </c>
+      <c r="AT15" t="n">
         <v>3</v>
-      </c>
-      <c r="AT15" t="n">
-        <v>2</v>
       </c>
       <c r="AU15" t="n">
         <v>17</v>
       </c>
       <c r="AV15" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AW15" t="n">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="AX15" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AY15" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ15" t="n">
         <v>3</v>
@@ -3197,7 +3264,7 @@
       </c>
       <c r="BF15" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -3214,16 +3281,16 @@
         </is>
       </c>
       <c r="D16" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E16" t="n">
         <v>51</v>
       </c>
       <c r="F16" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="G16" t="n">
-        <v>0.671</v>
+        <v>0.68</v>
       </c>
       <c r="H16" t="n">
         <v>48.3</v>
@@ -3232,7 +3299,7 @@
         <v>36.3</v>
       </c>
       <c r="J16" t="n">
-        <v>81.5</v>
+        <v>81.40000000000001</v>
       </c>
       <c r="K16" t="n">
         <v>0.445</v>
@@ -3244,31 +3311,31 @@
         <v>13.5</v>
       </c>
       <c r="N16" t="n">
-        <v>0.346</v>
+        <v>0.348</v>
       </c>
       <c r="O16" t="n">
-        <v>16.4</v>
+        <v>16.6</v>
       </c>
       <c r="P16" t="n">
-        <v>21.1</v>
+        <v>21.3</v>
       </c>
       <c r="Q16" t="n">
         <v>0.778</v>
       </c>
       <c r="R16" t="n">
-        <v>12.9</v>
+        <v>13</v>
       </c>
       <c r="S16" t="n">
-        <v>29.4</v>
+        <v>29.5</v>
       </c>
       <c r="T16" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U16" t="n">
         <v>21</v>
       </c>
       <c r="V16" t="n">
-        <v>14.1</v>
+        <v>14.2</v>
       </c>
       <c r="W16" t="n">
         <v>8.6</v>
@@ -3280,25 +3347,25 @@
         <v>5.5</v>
       </c>
       <c r="Z16" t="n">
-        <v>20.1</v>
+        <v>20.2</v>
       </c>
       <c r="AA16" t="n">
-        <v>19.9</v>
+        <v>20</v>
       </c>
       <c r="AB16" t="n">
-        <v>93.7</v>
+        <v>93.8</v>
       </c>
       <c r="AC16" t="n">
-        <v>3.9</v>
+        <v>4</v>
       </c>
       <c r="AD16" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE16" t="n">
         <v>5</v>
       </c>
       <c r="AF16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AG16" t="n">
         <v>5</v>
@@ -3310,7 +3377,7 @@
         <v>21</v>
       </c>
       <c r="AJ16" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AK16" t="n">
         <v>19</v>
@@ -3325,10 +3392,10 @@
         <v>23</v>
       </c>
       <c r="AO16" t="n">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="AP16" t="n">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="AQ16" t="n">
         <v>6</v>
@@ -3340,7 +3407,7 @@
         <v>26</v>
       </c>
       <c r="AT16" t="n">
-        <v>13</v>
+        <v>11</v>
       </c>
       <c r="AU16" t="n">
         <v>24</v>
@@ -3352,22 +3419,22 @@
         <v>4</v>
       </c>
       <c r="AX16" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AY16" t="n">
         <v>19</v>
       </c>
       <c r="AZ16" t="n">
-        <v>15</v>
+        <v>17</v>
       </c>
       <c r="BA16" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="BB16" t="n">
         <v>26</v>
       </c>
       <c r="BC16" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BD16" t="n">
         <v>10</v>
@@ -3379,7 +3446,7 @@
       </c>
       <c r="BF16" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -3396,34 +3463,34 @@
         </is>
       </c>
       <c r="D17" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E17" t="n">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="F17" t="n">
         <v>16</v>
       </c>
       <c r="G17" t="n">
-        <v>0.787</v>
+        <v>0.784</v>
       </c>
       <c r="H17" t="n">
         <v>48.5</v>
       </c>
       <c r="I17" t="n">
-        <v>38.5</v>
+        <v>38.6</v>
       </c>
       <c r="J17" t="n">
-        <v>77.59999999999999</v>
+        <v>77.7</v>
       </c>
       <c r="K17" t="n">
-        <v>0.496</v>
+        <v>0.497</v>
       </c>
       <c r="L17" t="n">
-        <v>8.5</v>
+        <v>8.4</v>
       </c>
       <c r="M17" t="n">
-        <v>21.5</v>
+        <v>21.3</v>
       </c>
       <c r="N17" t="n">
         <v>0.394</v>
@@ -3432,31 +3499,31 @@
         <v>17.5</v>
       </c>
       <c r="P17" t="n">
-        <v>23</v>
+        <v>23.1</v>
       </c>
       <c r="Q17" t="n">
-        <v>0.759</v>
+        <v>0.758</v>
       </c>
       <c r="R17" t="n">
-        <v>8.199999999999999</v>
+        <v>8.1</v>
       </c>
       <c r="S17" t="n">
         <v>30</v>
       </c>
       <c r="T17" t="n">
-        <v>38.2</v>
+        <v>38.1</v>
       </c>
       <c r="U17" t="n">
         <v>22.9</v>
       </c>
       <c r="V17" t="n">
-        <v>13.7</v>
+        <v>13.6</v>
       </c>
       <c r="W17" t="n">
         <v>8.9</v>
       </c>
       <c r="X17" t="n">
-        <v>5.3</v>
+        <v>5.2</v>
       </c>
       <c r="Y17" t="n">
         <v>3.3</v>
@@ -3465,16 +3532,16 @@
         <v>18.8</v>
       </c>
       <c r="AA17" t="n">
-        <v>20.4</v>
+        <v>20.6</v>
       </c>
       <c r="AB17" t="n">
-        <v>102.9</v>
+        <v>103.1</v>
       </c>
       <c r="AC17" t="n">
         <v>7.7</v>
       </c>
       <c r="AD17" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE17" t="n">
         <v>1</v>
@@ -3501,7 +3568,7 @@
         <v>5</v>
       </c>
       <c r="AM17" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AN17" t="n">
         <v>2</v>
@@ -3525,7 +3592,7 @@
         <v>30</v>
       </c>
       <c r="AU17" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AV17" t="n">
         <v>3</v>
@@ -3543,7 +3610,7 @@
         <v>8</v>
       </c>
       <c r="BA17" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BB17" t="n">
         <v>5</v>
@@ -3561,7 +3628,7 @@
       </c>
       <c r="BF17" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -3578,49 +3645,49 @@
         </is>
       </c>
       <c r="D18" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E18" t="n">
         <v>36</v>
       </c>
       <c r="F18" t="n">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="G18" t="n">
-        <v>0.48</v>
+        <v>0.486</v>
       </c>
       <c r="H18" t="n">
         <v>48.3</v>
       </c>
       <c r="I18" t="n">
-        <v>38.3</v>
+        <v>38.4</v>
       </c>
       <c r="J18" t="n">
-        <v>87.7</v>
+        <v>87.90000000000001</v>
       </c>
       <c r="K18" t="n">
-        <v>0.436</v>
+        <v>0.437</v>
       </c>
       <c r="L18" t="n">
-        <v>7.1</v>
+        <v>7</v>
       </c>
       <c r="M18" t="n">
-        <v>19.7</v>
+        <v>19.5</v>
       </c>
       <c r="N18" t="n">
-        <v>0.36</v>
+        <v>0.359</v>
       </c>
       <c r="O18" t="n">
-        <v>15.4</v>
+        <v>15.5</v>
       </c>
       <c r="P18" t="n">
-        <v>20.8</v>
+        <v>20.9</v>
       </c>
       <c r="Q18" t="n">
         <v>0.741</v>
       </c>
       <c r="R18" t="n">
-        <v>13.1</v>
+        <v>13.2</v>
       </c>
       <c r="S18" t="n">
         <v>30.8</v>
@@ -3629,43 +3696,43 @@
         <v>43.9</v>
       </c>
       <c r="U18" t="n">
-        <v>22.8</v>
+        <v>22.9</v>
       </c>
       <c r="V18" t="n">
-        <v>14</v>
+        <v>14.1</v>
       </c>
       <c r="W18" t="n">
         <v>8.300000000000001</v>
       </c>
       <c r="X18" t="n">
-        <v>6.8</v>
+        <v>6.9</v>
       </c>
       <c r="Y18" t="n">
         <v>4.5</v>
       </c>
       <c r="Z18" t="n">
-        <v>19</v>
+        <v>19.1</v>
       </c>
       <c r="AA18" t="n">
         <v>19.3</v>
       </c>
       <c r="AB18" t="n">
-        <v>99</v>
+        <v>99.2</v>
       </c>
       <c r="AC18" t="n">
-        <v>-1.5</v>
+        <v>-1.2</v>
       </c>
       <c r="AD18" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AF18" t="n">
         <v>17</v>
       </c>
       <c r="AG18" t="n">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="AH18" t="n">
         <v>15</v>
@@ -3680,13 +3747,13 @@
         <v>25</v>
       </c>
       <c r="AL18" t="n">
-        <v>14</v>
+        <v>15</v>
       </c>
       <c r="AM18" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AN18" t="n">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="AO18" t="n">
         <v>25</v>
@@ -3707,13 +3774,13 @@
         <v>5</v>
       </c>
       <c r="AU18" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AV18" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW18" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AX18" t="n">
         <v>2</v>
@@ -3743,7 +3810,7 @@
       </c>
       <c r="BF18" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -3760,25 +3827,25 @@
         </is>
       </c>
       <c r="D19" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E19" t="n">
         <v>28</v>
       </c>
       <c r="F19" t="n">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="G19" t="n">
-        <v>0.373</v>
+        <v>0.378</v>
       </c>
       <c r="H19" t="n">
         <v>48.1</v>
       </c>
       <c r="I19" t="n">
-        <v>35.8</v>
+        <v>35.9</v>
       </c>
       <c r="J19" t="n">
-        <v>81.5</v>
+        <v>81.7</v>
       </c>
       <c r="K19" t="n">
         <v>0.44</v>
@@ -3787,28 +3854,28 @@
         <v>5.4</v>
       </c>
       <c r="M19" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="N19" t="n">
-        <v>0.302</v>
+        <v>0.303</v>
       </c>
       <c r="O19" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="P19" t="n">
-        <v>25.2</v>
+        <v>25</v>
       </c>
       <c r="Q19" t="n">
         <v>0.735</v>
       </c>
       <c r="R19" t="n">
-        <v>12.1</v>
+        <v>12.2</v>
       </c>
       <c r="S19" t="n">
         <v>30.2</v>
       </c>
       <c r="T19" t="n">
-        <v>42.3</v>
+        <v>42.4</v>
       </c>
       <c r="U19" t="n">
         <v>22.3</v>
@@ -3826,7 +3893,7 @@
         <v>6</v>
       </c>
       <c r="Z19" t="n">
-        <v>18.5</v>
+        <v>18.6</v>
       </c>
       <c r="AA19" t="n">
         <v>22.7</v>
@@ -3838,16 +3905,16 @@
         <v>-2.3</v>
       </c>
       <c r="AD19" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AF19" t="n">
         <v>21</v>
       </c>
       <c r="AG19" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AH19" t="n">
         <v>26</v>
@@ -3856,7 +3923,7 @@
         <v>25</v>
       </c>
       <c r="AJ19" t="n">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="AK19" t="n">
         <v>24</v>
@@ -3880,13 +3947,13 @@
         <v>23</v>
       </c>
       <c r="AR19" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AS19" t="n">
         <v>17</v>
       </c>
       <c r="AT19" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AU19" t="n">
         <v>16</v>
@@ -3895,10 +3962,10 @@
         <v>21</v>
       </c>
       <c r="AW19" t="n">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="AX19" t="n">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="AY19" t="n">
         <v>24</v>
@@ -3925,7 +3992,7 @@
       </c>
       <c r="BF19" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -3942,16 +4009,16 @@
         </is>
       </c>
       <c r="D20" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E20" t="n">
         <v>26</v>
       </c>
       <c r="F20" t="n">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="G20" t="n">
-        <v>0.342</v>
+        <v>0.347</v>
       </c>
       <c r="H20" t="n">
         <v>48.3</v>
@@ -3963,25 +4030,25 @@
         <v>80.2</v>
       </c>
       <c r="K20" t="n">
-        <v>0.451</v>
+        <v>0.452</v>
       </c>
       <c r="L20" t="n">
-        <v>6.6</v>
+        <v>6.7</v>
       </c>
       <c r="M20" t="n">
-        <v>18</v>
+        <v>18.1</v>
       </c>
       <c r="N20" t="n">
-        <v>0.366</v>
+        <v>0.368</v>
       </c>
       <c r="O20" t="n">
-        <v>15.1</v>
+        <v>15</v>
       </c>
       <c r="P20" t="n">
         <v>19.4</v>
       </c>
       <c r="Q20" t="n">
-        <v>0.776</v>
+        <v>0.775</v>
       </c>
       <c r="R20" t="n">
         <v>11.7</v>
@@ -3993,7 +4060,7 @@
         <v>41.3</v>
       </c>
       <c r="U20" t="n">
-        <v>21.1</v>
+        <v>21.2</v>
       </c>
       <c r="V20" t="n">
         <v>14.4</v>
@@ -4008,19 +4075,19 @@
         <v>6</v>
       </c>
       <c r="Z20" t="n">
-        <v>20.4</v>
+        <v>20.5</v>
       </c>
       <c r="AA20" t="n">
-        <v>18.5</v>
+        <v>18.4</v>
       </c>
       <c r="AB20" t="n">
-        <v>94</v>
+        <v>94.09999999999999</v>
       </c>
       <c r="AC20" t="n">
-        <v>-3.5</v>
+        <v>-3.4</v>
       </c>
       <c r="AD20" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE20" t="n">
         <v>25</v>
@@ -4035,7 +4102,7 @@
         <v>22</v>
       </c>
       <c r="AI20" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="AJ20" t="n">
         <v>26</v>
@@ -4050,7 +4117,7 @@
         <v>21</v>
       </c>
       <c r="AN20" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AO20" t="n">
         <v>26</v>
@@ -4065,7 +4132,7 @@
         <v>12</v>
       </c>
       <c r="AS20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="AT20" t="n">
         <v>19</v>
@@ -4074,7 +4141,7 @@
         <v>22</v>
       </c>
       <c r="AV20" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AW20" t="n">
         <v>30</v>
@@ -4083,7 +4150,7 @@
         <v>8</v>
       </c>
       <c r="AY20" t="n">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="AZ20" t="n">
         <v>19</v>
@@ -4092,7 +4159,7 @@
         <v>28</v>
       </c>
       <c r="BB20" t="n">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="BC20" t="n">
         <v>24</v>
@@ -4107,7 +4174,7 @@
       </c>
       <c r="BF20" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -4124,25 +4191,25 @@
         </is>
       </c>
       <c r="D21" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E21" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="F21" t="n">
         <v>26</v>
       </c>
       <c r="G21" t="n">
-        <v>0.653</v>
+        <v>0.649</v>
       </c>
       <c r="H21" t="n">
         <v>48.1</v>
       </c>
       <c r="I21" t="n">
-        <v>36.2</v>
+        <v>36.1</v>
       </c>
       <c r="J21" t="n">
-        <v>81.09999999999999</v>
+        <v>81</v>
       </c>
       <c r="K21" t="n">
         <v>0.446</v>
@@ -4151,16 +4218,16 @@
         <v>10.7</v>
       </c>
       <c r="M21" t="n">
-        <v>28.7</v>
+        <v>28.6</v>
       </c>
       <c r="N21" t="n">
-        <v>0.373</v>
+        <v>0.374</v>
       </c>
       <c r="O21" t="n">
-        <v>16.3</v>
+        <v>16.4</v>
       </c>
       <c r="P21" t="n">
-        <v>21.5</v>
+        <v>21.7</v>
       </c>
       <c r="Q21" t="n">
         <v>0.759</v>
@@ -4169,13 +4236,13 @@
         <v>10.9</v>
       </c>
       <c r="S21" t="n">
-        <v>29.7</v>
+        <v>29.6</v>
       </c>
       <c r="T21" t="n">
-        <v>40.6</v>
+        <v>40.4</v>
       </c>
       <c r="U21" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="V21" t="n">
         <v>12.2</v>
@@ -4190,7 +4257,7 @@
         <v>3.9</v>
       </c>
       <c r="Z21" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AA21" t="n">
         <v>19.4</v>
@@ -4199,10 +4266,10 @@
         <v>99.40000000000001</v>
       </c>
       <c r="AC21" t="n">
-        <v>4.2</v>
+        <v>4</v>
       </c>
       <c r="AD21" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE21" t="n">
         <v>7</v>
@@ -4217,7 +4284,7 @@
         <v>30</v>
       </c>
       <c r="AI21" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="AJ21" t="n">
         <v>22</v>
@@ -4235,7 +4302,7 @@
         <v>6</v>
       </c>
       <c r="AO21" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AP21" t="n">
         <v>16</v>
@@ -4247,13 +4314,13 @@
         <v>20</v>
       </c>
       <c r="AS21" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AT21" t="n">
-        <v>25</v>
+        <v>26</v>
       </c>
       <c r="AU21" t="n">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="AV21" t="n">
         <v>1</v>
@@ -4277,7 +4344,7 @@
         <v>11</v>
       </c>
       <c r="BC21" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD21" t="n">
         <v>10</v>
@@ -4289,7 +4356,7 @@
       </c>
       <c r="BF21" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -4306,16 +4373,16 @@
         </is>
       </c>
       <c r="D22" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E22" t="n">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="F22" t="n">
         <v>20</v>
       </c>
       <c r="G22" t="n">
-        <v>0.737</v>
+        <v>0.733</v>
       </c>
       <c r="H22" t="n">
         <v>48.4</v>
@@ -4333,40 +4400,40 @@
         <v>7.3</v>
       </c>
       <c r="M22" t="n">
-        <v>19.2</v>
+        <v>19.3</v>
       </c>
       <c r="N22" t="n">
-        <v>0.378</v>
+        <v>0.379</v>
       </c>
       <c r="O22" t="n">
         <v>22.6</v>
       </c>
       <c r="P22" t="n">
-        <v>27.3</v>
+        <v>27.4</v>
       </c>
       <c r="Q22" t="n">
         <v>0.827</v>
       </c>
       <c r="R22" t="n">
-        <v>10.4</v>
+        <v>10.3</v>
       </c>
       <c r="S22" t="n">
-        <v>33.3</v>
+        <v>33.2</v>
       </c>
       <c r="T22" t="n">
-        <v>43.6</v>
+        <v>43.5</v>
       </c>
       <c r="U22" t="n">
-        <v>21.4</v>
+        <v>21.5</v>
       </c>
       <c r="V22" t="n">
         <v>15.5</v>
       </c>
       <c r="W22" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="X22" t="n">
-        <v>7.6</v>
+        <v>7.7</v>
       </c>
       <c r="Y22" t="n">
         <v>4</v>
@@ -4378,22 +4445,22 @@
         <v>21.1</v>
       </c>
       <c r="AB22" t="n">
-        <v>105.8</v>
+        <v>106</v>
       </c>
       <c r="AC22" t="n">
-        <v>9.4</v>
+        <v>9.199999999999999</v>
       </c>
       <c r="AD22" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AF22" t="n">
         <v>2</v>
       </c>
       <c r="AG22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AH22" t="n">
         <v>12</v>
@@ -4429,7 +4496,7 @@
         <v>25</v>
       </c>
       <c r="AS22" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AT22" t="n">
         <v>6</v>
@@ -4438,10 +4505,10 @@
         <v>21</v>
       </c>
       <c r="AV22" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="AW22" t="n">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="AX22" t="n">
         <v>1</v>
@@ -4471,7 +4538,7 @@
       </c>
       <c r="BF22" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -4488,16 +4555,16 @@
         </is>
       </c>
       <c r="D23" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E23" t="n">
         <v>19</v>
       </c>
       <c r="F23" t="n">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="G23" t="n">
-        <v>0.247</v>
+        <v>0.25</v>
       </c>
       <c r="H23" t="n">
         <v>48.2</v>
@@ -4506,19 +4573,19 @@
         <v>37.7</v>
       </c>
       <c r="J23" t="n">
-        <v>84</v>
+        <v>84.09999999999999</v>
       </c>
       <c r="K23" t="n">
-        <v>0.448</v>
+        <v>0.449</v>
       </c>
       <c r="L23" t="n">
-        <v>6.3</v>
+        <v>6.4</v>
       </c>
       <c r="M23" t="n">
-        <v>19.1</v>
+        <v>19.2</v>
       </c>
       <c r="N23" t="n">
-        <v>0.332</v>
+        <v>0.331</v>
       </c>
       <c r="O23" t="n">
         <v>12.5</v>
@@ -4527,7 +4594,7 @@
         <v>16.3</v>
       </c>
       <c r="Q23" t="n">
-        <v>0.767</v>
+        <v>0.766</v>
       </c>
       <c r="R23" t="n">
         <v>10.6</v>
@@ -4548,22 +4615,22 @@
         <v>6.4</v>
       </c>
       <c r="X23" t="n">
-        <v>4.4</v>
+        <v>4.3</v>
       </c>
       <c r="Y23" t="n">
         <v>5.1</v>
       </c>
       <c r="Z23" t="n">
-        <v>19.5</v>
+        <v>19.6</v>
       </c>
       <c r="AA23" t="n">
         <v>16.4</v>
       </c>
       <c r="AB23" t="n">
-        <v>94.2</v>
+        <v>94.3</v>
       </c>
       <c r="AC23" t="n">
-        <v>-6.7</v>
+        <v>-6.8</v>
       </c>
       <c r="AD23" t="n">
         <v>1</v>
@@ -4614,13 +4681,13 @@
         <v>9</v>
       </c>
       <c r="AT23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AU23" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AV23" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AW23" t="n">
         <v>29</v>
@@ -4641,7 +4708,7 @@
         <v>23</v>
       </c>
       <c r="BC23" t="n">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="BD23" t="n">
         <v>10</v>
@@ -4653,7 +4720,7 @@
       </c>
       <c r="BF23" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -4670,16 +4737,16 @@
         </is>
       </c>
       <c r="D24" t="n">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E24" t="n">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F24" t="n">
         <v>44</v>
       </c>
       <c r="G24" t="n">
-        <v>0.413</v>
+        <v>0.405</v>
       </c>
       <c r="H24" t="n">
         <v>48.2</v>
@@ -4688,37 +4755,37 @@
         <v>37.3</v>
       </c>
       <c r="J24" t="n">
-        <v>83.90000000000001</v>
+        <v>84</v>
       </c>
       <c r="K24" t="n">
-        <v>0.445</v>
+        <v>0.444</v>
       </c>
       <c r="L24" t="n">
-        <v>6.3</v>
+        <v>6.2</v>
       </c>
       <c r="M24" t="n">
         <v>17.3</v>
       </c>
       <c r="N24" t="n">
-        <v>0.361</v>
+        <v>0.359</v>
       </c>
       <c r="O24" t="n">
-        <v>12.1</v>
+        <v>12</v>
       </c>
       <c r="P24" t="n">
-        <v>16.8</v>
+        <v>16.7</v>
       </c>
       <c r="Q24" t="n">
-        <v>0.722</v>
+        <v>0.721</v>
       </c>
       <c r="R24" t="n">
         <v>10.9</v>
       </c>
       <c r="S24" t="n">
-        <v>30.5</v>
+        <v>30.4</v>
       </c>
       <c r="T24" t="n">
-        <v>41.4</v>
+        <v>41.3</v>
       </c>
       <c r="U24" t="n">
         <v>22.9</v>
@@ -4742,13 +4809,13 @@
         <v>16.3</v>
       </c>
       <c r="AB24" t="n">
-        <v>93</v>
+        <v>92.90000000000001</v>
       </c>
       <c r="AC24" t="n">
-        <v>-3.2</v>
+        <v>-3.4</v>
       </c>
       <c r="AD24" t="n">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="AE24" t="n">
         <v>20</v>
@@ -4766,7 +4833,7 @@
         <v>13</v>
       </c>
       <c r="AJ24" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AK24" t="n">
         <v>20</v>
@@ -4778,7 +4845,7 @@
         <v>25</v>
       </c>
       <c r="AN24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AO24" t="n">
         <v>30</v>
@@ -4799,7 +4866,7 @@
         <v>18</v>
       </c>
       <c r="AU24" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV24" t="n">
         <v>2</v>
@@ -4811,16 +4878,16 @@
         <v>19</v>
       </c>
       <c r="AY24" t="n">
-        <v>13</v>
+        <v>14</v>
       </c>
       <c r="AZ24" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="BA24" t="n">
         <v>30</v>
       </c>
       <c r="BB24" t="n">
-        <v>28</v>
+        <v>30</v>
       </c>
       <c r="BC24" t="n">
         <v>23</v>
@@ -4835,7 +4902,7 @@
       </c>
       <c r="BF24" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -4852,28 +4919,28 @@
         </is>
       </c>
       <c r="D25" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E25" t="n">
         <v>23</v>
       </c>
       <c r="F25" t="n">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="G25" t="n">
-        <v>0.303</v>
+        <v>0.307</v>
       </c>
       <c r="H25" t="n">
         <v>48.3</v>
       </c>
       <c r="I25" t="n">
-        <v>37.2</v>
+        <v>37.1</v>
       </c>
       <c r="J25" t="n">
-        <v>84.09999999999999</v>
+        <v>84.2</v>
       </c>
       <c r="K25" t="n">
-        <v>0.443</v>
+        <v>0.441</v>
       </c>
       <c r="L25" t="n">
         <v>5.7</v>
@@ -4882,7 +4949,7 @@
         <v>17.5</v>
       </c>
       <c r="N25" t="n">
-        <v>0.325</v>
+        <v>0.324</v>
       </c>
       <c r="O25" t="n">
         <v>14.7</v>
@@ -4891,16 +4958,16 @@
         <v>19.9</v>
       </c>
       <c r="Q25" t="n">
-        <v>0.74</v>
+        <v>0.739</v>
       </c>
       <c r="R25" t="n">
-        <v>11.7</v>
+        <v>11.8</v>
       </c>
       <c r="S25" t="n">
         <v>29.9</v>
       </c>
       <c r="T25" t="n">
-        <v>41.6</v>
+        <v>41.7</v>
       </c>
       <c r="U25" t="n">
         <v>22.4</v>
@@ -4918,37 +4985,37 @@
         <v>5</v>
       </c>
       <c r="Z25" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="AA25" t="n">
         <v>18.5</v>
       </c>
       <c r="AB25" t="n">
-        <v>94.8</v>
+        <v>94.59999999999999</v>
       </c>
       <c r="AC25" t="n">
         <v>-6.7</v>
       </c>
       <c r="AD25" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE25" t="n">
         <v>27</v>
       </c>
       <c r="AF25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AG25" t="n">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="AH25" t="n">
         <v>17</v>
       </c>
       <c r="AI25" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AJ25" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AK25" t="n">
         <v>23</v>
@@ -4984,7 +5051,7 @@
         <v>15</v>
       </c>
       <c r="AV25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="AW25" t="n">
         <v>16</v>
@@ -5005,7 +5072,7 @@
         <v>22</v>
       </c>
       <c r="BC25" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BD25" t="n">
         <v>10</v>
@@ -5017,7 +5084,7 @@
       </c>
       <c r="BF25" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -5034,16 +5101,16 @@
         </is>
       </c>
       <c r="D26" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E26" t="n">
         <v>33</v>
       </c>
       <c r="F26" t="n">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="G26" t="n">
-        <v>0.434</v>
+        <v>0.44</v>
       </c>
       <c r="H26" t="n">
         <v>48.5</v>
@@ -5052,37 +5119,37 @@
         <v>36.8</v>
       </c>
       <c r="J26" t="n">
-        <v>81.90000000000001</v>
+        <v>81.8</v>
       </c>
       <c r="K26" t="n">
         <v>0.449</v>
       </c>
       <c r="L26" t="n">
-        <v>8.199999999999999</v>
+        <v>8.300000000000001</v>
       </c>
       <c r="M26" t="n">
         <v>23.3</v>
       </c>
       <c r="N26" t="n">
-        <v>0.353</v>
+        <v>0.356</v>
       </c>
       <c r="O26" t="n">
         <v>16</v>
       </c>
       <c r="P26" t="n">
-        <v>20.7</v>
+        <v>20.6</v>
       </c>
       <c r="Q26" t="n">
-        <v>0.775</v>
+        <v>0.774</v>
       </c>
       <c r="R26" t="n">
-        <v>10.9</v>
+        <v>10.8</v>
       </c>
       <c r="S26" t="n">
         <v>30.3</v>
       </c>
       <c r="T26" t="n">
-        <v>41.2</v>
+        <v>41.1</v>
       </c>
       <c r="U26" t="n">
         <v>21.8</v>
@@ -5109,10 +5176,10 @@
         <v>97.8</v>
       </c>
       <c r="AC26" t="n">
-        <v>-2.6</v>
+        <v>-2.4</v>
       </c>
       <c r="AD26" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE26" t="n">
         <v>19</v>
@@ -5124,25 +5191,25 @@
         <v>19</v>
       </c>
       <c r="AH26" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AI26" t="n">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="AJ26" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AK26" t="n">
         <v>14</v>
       </c>
       <c r="AL26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AM26" t="n">
         <v>5</v>
       </c>
       <c r="AN26" t="n">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="AO26" t="n">
         <v>22</v>
@@ -5151,7 +5218,7 @@
         <v>25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AR26" t="n">
         <v>21</v>
@@ -5160,25 +5227,25 @@
         <v>16</v>
       </c>
       <c r="AT26" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AU26" t="n">
         <v>19</v>
       </c>
       <c r="AV26" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="AW26" t="n">
         <v>28</v>
       </c>
       <c r="AX26" t="n">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="AY26" t="n">
         <v>7</v>
       </c>
       <c r="AZ26" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="BA26" t="n">
         <v>25</v>
@@ -5199,7 +5266,7 @@
       </c>
       <c r="BF26" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -5216,43 +5283,43 @@
         </is>
       </c>
       <c r="D27" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E27" t="n">
         <v>27</v>
       </c>
       <c r="F27" t="n">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="G27" t="n">
-        <v>0.355</v>
+        <v>0.36</v>
       </c>
       <c r="H27" t="n">
         <v>48.4</v>
       </c>
       <c r="I27" t="n">
-        <v>37.6</v>
+        <v>37.5</v>
       </c>
       <c r="J27" t="n">
-        <v>83.90000000000001</v>
+        <v>83.8</v>
       </c>
       <c r="K27" t="n">
         <v>0.448</v>
       </c>
       <c r="L27" t="n">
-        <v>7.3</v>
+        <v>7.4</v>
       </c>
       <c r="M27" t="n">
         <v>20.2</v>
       </c>
       <c r="N27" t="n">
-        <v>0.363</v>
+        <v>0.365</v>
       </c>
       <c r="O27" t="n">
         <v>17.6</v>
       </c>
       <c r="P27" t="n">
-        <v>22.9</v>
+        <v>22.8</v>
       </c>
       <c r="Q27" t="n">
         <v>0.771</v>
@@ -5264,7 +5331,7 @@
         <v>29</v>
       </c>
       <c r="T27" t="n">
-        <v>40.6</v>
+        <v>40.5</v>
       </c>
       <c r="U27" t="n">
         <v>20.7</v>
@@ -5276,10 +5343,10 @@
         <v>8.1</v>
       </c>
       <c r="X27" t="n">
-        <v>4.1</v>
+        <v>4.2</v>
       </c>
       <c r="Y27" t="n">
-        <v>6.1</v>
+        <v>6.2</v>
       </c>
       <c r="Z27" t="n">
         <v>21</v>
@@ -5288,13 +5355,13 @@
         <v>20.1</v>
       </c>
       <c r="AB27" t="n">
-        <v>100.1</v>
+        <v>100</v>
       </c>
       <c r="AC27" t="n">
         <v>-4.8</v>
       </c>
       <c r="AD27" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE27" t="n">
         <v>24</v>
@@ -5324,7 +5391,7 @@
         <v>11</v>
       </c>
       <c r="AN27" t="n">
-        <v>12</v>
+        <v>10</v>
       </c>
       <c r="AO27" t="n">
         <v>8</v>
@@ -5342,13 +5409,13 @@
         <v>28</v>
       </c>
       <c r="AT27" t="n">
+        <v>25</v>
+      </c>
+      <c r="AU27" t="n">
         <v>26</v>
       </c>
-      <c r="AU27" t="n">
-        <v>25</v>
-      </c>
       <c r="AV27" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="AW27" t="n">
         <v>13</v>
@@ -5360,16 +5427,16 @@
         <v>27</v>
       </c>
       <c r="AZ27" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="BA27" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="BB27" t="n">
         <v>10</v>
       </c>
       <c r="BC27" t="n">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="BD27" t="n">
         <v>10</v>
@@ -5381,7 +5448,7 @@
       </c>
       <c r="BF27" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -5476,7 +5543,7 @@
         <v>7.3</v>
       </c>
       <c r="AD28" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="AE28" t="n">
         <v>2</v>
@@ -5500,7 +5567,7 @@
         <v>2</v>
       </c>
       <c r="AL28" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AM28" t="n">
         <v>6</v>
@@ -5512,7 +5579,7 @@
         <v>15</v>
       </c>
       <c r="AP28" t="n">
-        <v>20</v>
+        <v>22</v>
       </c>
       <c r="AQ28" t="n">
         <v>4</v>
@@ -5524,7 +5591,7 @@
         <v>5</v>
       </c>
       <c r="AT28" t="n">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="AU28" t="n">
         <v>1</v>
@@ -5563,7 +5630,7 @@
       </c>
       <c r="BF28" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -5580,16 +5647,16 @@
         </is>
       </c>
       <c r="D29" t="n">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="E29" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="F29" t="n">
         <v>47</v>
       </c>
       <c r="G29" t="n">
-        <v>0.382</v>
+        <v>0.373</v>
       </c>
       <c r="H29" t="n">
         <v>48.8</v>
@@ -5607,19 +5674,19 @@
         <v>7</v>
       </c>
       <c r="M29" t="n">
-        <v>20.6</v>
+        <v>20.7</v>
       </c>
       <c r="N29" t="n">
-        <v>0.339</v>
+        <v>0.34</v>
       </c>
       <c r="O29" t="n">
-        <v>17.3</v>
+        <v>17.4</v>
       </c>
       <c r="P29" t="n">
-        <v>22</v>
+        <v>22.1</v>
       </c>
       <c r="Q29" t="n">
-        <v>0.785</v>
+        <v>0.786</v>
       </c>
       <c r="R29" t="n">
         <v>10.8</v>
@@ -5640,7 +5707,7 @@
         <v>7.3</v>
       </c>
       <c r="X29" t="n">
-        <v>4.8</v>
+        <v>4.7</v>
       </c>
       <c r="Y29" t="n">
         <v>4.8</v>
@@ -5649,25 +5716,25 @@
         <v>22.7</v>
       </c>
       <c r="AA29" t="n">
-        <v>20</v>
+        <v>20.1</v>
       </c>
       <c r="AB29" t="n">
         <v>97</v>
       </c>
       <c r="AC29" t="n">
-        <v>-2.1</v>
+        <v>-2.2</v>
       </c>
       <c r="AD29" t="n">
-        <v>4</v>
+        <v>8</v>
       </c>
       <c r="AE29" t="n">
         <v>21</v>
       </c>
       <c r="AF29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AG29" t="n">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="AH29" t="n">
         <v>2</v>
@@ -5682,7 +5749,7 @@
         <v>22</v>
       </c>
       <c r="AL29" t="n">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="AM29" t="n">
         <v>10</v>
@@ -5715,10 +5782,10 @@
         <v>4</v>
       </c>
       <c r="AW29" t="n">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="AX29" t="n">
-        <v>18</v>
+        <v>20</v>
       </c>
       <c r="AY29" t="n">
         <v>11</v>
@@ -5727,7 +5794,7 @@
         <v>30</v>
       </c>
       <c r="BA29" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="BB29" t="n">
         <v>16</v>
@@ -5745,7 +5812,7 @@
       </c>
       <c r="BF29" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -5762,16 +5829,16 @@
         </is>
       </c>
       <c r="D30" t="n">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="E30" t="n">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="F30" t="n">
         <v>37</v>
       </c>
       <c r="G30" t="n">
-        <v>0.519</v>
+        <v>0.513</v>
       </c>
       <c r="H30" t="n">
         <v>48.5</v>
@@ -5780,28 +5847,28 @@
         <v>37.3</v>
       </c>
       <c r="J30" t="n">
-        <v>82</v>
+        <v>82.09999999999999</v>
       </c>
       <c r="K30" t="n">
-        <v>0.455</v>
+        <v>0.454</v>
       </c>
       <c r="L30" t="n">
-        <v>6.2</v>
+        <v>6.1</v>
       </c>
       <c r="M30" t="n">
-        <v>16.9</v>
+        <v>16.8</v>
       </c>
       <c r="N30" t="n">
-        <v>0.365</v>
+        <v>0.364</v>
       </c>
       <c r="O30" t="n">
-        <v>17.8</v>
+        <v>17.9</v>
       </c>
       <c r="P30" t="n">
-        <v>23.3</v>
+        <v>23.5</v>
       </c>
       <c r="Q30" t="n">
-        <v>0.762</v>
+        <v>0.764</v>
       </c>
       <c r="R30" t="n">
         <v>12.3</v>
@@ -5810,10 +5877,10 @@
         <v>29.8</v>
       </c>
       <c r="T30" t="n">
-        <v>42</v>
+        <v>42.1</v>
       </c>
       <c r="U30" t="n">
-        <v>22.7</v>
+        <v>22.6</v>
       </c>
       <c r="V30" t="n">
         <v>14.8</v>
@@ -5822,22 +5889,22 @@
         <v>8.4</v>
       </c>
       <c r="X30" t="n">
-        <v>6.4</v>
+        <v>6.3</v>
       </c>
       <c r="Y30" t="n">
         <v>5.9</v>
       </c>
       <c r="Z30" t="n">
-        <v>21.6</v>
+        <v>21.5</v>
       </c>
       <c r="AA30" t="n">
         <v>20.5</v>
       </c>
       <c r="AB30" t="n">
-        <v>98.5</v>
+        <v>98.59999999999999</v>
       </c>
       <c r="AC30" t="n">
-        <v>-0.1</v>
+        <v>-0.3</v>
       </c>
       <c r="AD30" t="n">
         <v>1</v>
@@ -5846,13 +5913,13 @@
         <v>14</v>
       </c>
       <c r="AF30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AG30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AH30" t="n">
-        <v>7</v>
+        <v>5</v>
       </c>
       <c r="AI30" t="n">
         <v>14</v>
@@ -5864,19 +5931,19 @@
         <v>12</v>
       </c>
       <c r="AL30" t="n">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="AM30" t="n">
         <v>28</v>
       </c>
       <c r="AN30" t="n">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="AO30" t="n">
         <v>7</v>
       </c>
       <c r="AP30" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AQ30" t="n">
         <v>13</v>
@@ -5909,13 +5976,13 @@
         <v>29</v>
       </c>
       <c r="BA30" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BB30" t="n">
         <v>13</v>
       </c>
       <c r="BC30" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="BD30" t="n">
         <v>10</v>
@@ -5927,7 +5994,7 @@
       </c>
       <c r="BF30" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
@@ -6022,13 +6089,13 @@
         <v>-2.3</v>
       </c>
       <c r="AD31" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE31" t="n">
+        <v>21</v>
+      </c>
+      <c r="AF31" t="n">
         <v>22</v>
-      </c>
-      <c r="AE31" t="n">
-        <v>22</v>
-      </c>
-      <c r="AF31" t="n">
-        <v>21</v>
       </c>
       <c r="AG31" t="n">
         <v>22</v>
@@ -6040,7 +6107,7 @@
         <v>28</v>
       </c>
       <c r="AJ31" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AK31" t="n">
         <v>29</v>
@@ -6052,13 +6119,13 @@
         <v>20</v>
       </c>
       <c r="AN31" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AO31" t="n">
         <v>24</v>
       </c>
       <c r="AP31" t="n">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="AQ31" t="n">
         <v>22</v>
@@ -6082,7 +6149,7 @@
         <v>22</v>
       </c>
       <c r="AX31" t="n">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="AY31" t="n">
         <v>9</v>
@@ -6094,7 +6161,7 @@
         <v>23</v>
       </c>
       <c r="BB31" t="n">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="BC31" t="n">
         <v>21</v>
@@ -6109,7 +6176,7 @@
       </c>
       <c r="BF31" t="inlineStr">
         <is>
-          <t>4-5-2012-13</t>
+          <t>2013-04-05</t>
         </is>
       </c>
     </row>
